--- a/output/analysis/calculator_sheet.xlsx
+++ b/output/analysis/calculator_sheet.xlsx
@@ -424,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,24 +492,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>214</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">E3*C3</f>
-        <v>171.2</v>
+        <v>169.06</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">H3/B3</f>
-        <v>251.764705882353</v>
+        <v>252.328358208955</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +520,7 @@
         <v>0.96</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.95</v>
@@ -530,11 +530,11 @@
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">E4*C4</f>
-        <v>1333.8</v>
+        <v>1319.76</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">H4/B4</f>
-        <v>1389.375</v>
+        <v>1374.75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,11 +583,11 @@
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">SUM(H2:H5)</f>
-        <v>1512.92</v>
+        <v>1496.74</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">SUM(I2:I5)</f>
-        <v>1656.97970588235</v>
+        <v>1642.91835820896</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,15 +607,15 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">H6/I6</f>
-        <v>0.913058859217808</v>
+        <v>0.911025184253031</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">H6/E6</f>
-        <v>0.917477258944815</v>
+        <v>0.907665251667677</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">2*H8*I8/(H8+I8)</f>
-        <v>0.915262726693725</v>
+        <v>0.909342114313148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,24 +643,24 @@
         <v>0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>102</v>
+        <v>462</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">E13*C13</f>
-        <v>56.1</v>
+        <v>355.74</v>
       </c>
       <c r="I13" s="1" t="n">
         <f aca="false">H13/B13</f>
-        <v>57.8350515463918</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,24 +668,24 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>128</v>
+        <v>818</v>
       </c>
       <c r="H14" s="1" t="n">
         <f aca="false">E14*C14</f>
-        <v>92.16</v>
+        <v>482.62</v>
       </c>
       <c r="I14" s="1" t="n">
         <f aca="false">H14/B14</f>
-        <v>170.666666666667</v>
+        <v>670.305555555556</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,24 +693,24 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>121</v>
+        <v>2744</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">E15*C15</f>
-        <v>54.45</v>
+        <v>2387.28</v>
       </c>
       <c r="I15" s="1" t="n">
         <f aca="false">H15/B15</f>
-        <v>121</v>
+        <v>2808.56470588235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,18 +728,18 @@
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">SUM(E13:E15)</f>
-        <v>351</v>
+        <v>4024</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">SUM(H13:H15)</f>
-        <v>202.71</v>
+        <v>3225.64</v>
       </c>
       <c r="I16" s="1" t="n">
         <f aca="false">SUM(I13:I15)</f>
-        <v>349.501718213058</v>
+        <v>4017.87026143791</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,15 +759,15 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">H16/I16</f>
-        <v>0.579997148616096</v>
+        <v>0.802823334281982</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">H16/E16</f>
-        <v>0.577521367521368</v>
+        <v>0.801600397614314</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">2*H18*I18/(H18+I18)</f>
-        <v>0.578756610382347</v>
+        <v>0.802211399869872</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
